--- a/examples/file3.xlsx
+++ b/examples/file3.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Имя</t>
   </si>
@@ -34,9 +33,6 @@
     <t>Дата рождения</t>
   </si>
   <si>
-    <t>Серия и номер паспорта</t>
-  </si>
-  <si>
     <t>Пол</t>
   </si>
   <si>
@@ -79,7 +75,13 @@
     <t>Анатольевна</t>
   </si>
   <si>
-    <t>Александра</t>
+    <t>Серия паспорта</t>
+  </si>
+  <si>
+    <t>Номер паспорта</t>
+  </si>
+  <si>
+    <t>789-321</t>
   </si>
 </sst>
 </file>
@@ -399,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,15 +413,16 @@
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,177 +436,95 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="2">
         <v>34604</v>
       </c>
       <c r="E2">
-        <v>6985123456</v>
-      </c>
-      <c r="F2" t="s">
+        <v>6985</v>
+      </c>
+      <c r="F2">
+        <v>123456</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="2">
+        <v>37773</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2">
-        <v>37773</v>
-      </c>
-      <c r="J2">
-        <v>789321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>35388</v>
       </c>
       <c r="E3">
-        <v>3268123654</v>
-      </c>
-      <c r="F3" t="s">
+        <v>3268</v>
+      </c>
+      <c r="F3">
+        <v>123654</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>37773</v>
       </c>
-      <c r="J3">
-        <v>789321</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
-        <v>35388</v>
-      </c>
-      <c r="E2">
-        <v>9863123456</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2">
-        <v>37773</v>
-      </c>
-      <c r="J2">
-        <v>789321</v>
+      <c r="K3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
